--- a/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
+++ b/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33824B70-6B4C-4E4F-BC4F-CF7343D47A35}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2138D942-B10A-473E-BC77-DCFA2FF6A0B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,11 +49,11 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId34"/>
-    <pivotCache cacheId="6" r:id="rId35"/>
-    <pivotCache cacheId="7" r:id="rId36"/>
-    <pivotCache cacheId="8" r:id="rId37"/>
-    <pivotCache cacheId="9" r:id="rId38"/>
+    <pivotCache cacheId="0" r:id="rId34"/>
+    <pivotCache cacheId="1" r:id="rId35"/>
+    <pivotCache cacheId="2" r:id="rId36"/>
+    <pivotCache cacheId="3" r:id="rId37"/>
+    <pivotCache cacheId="4" r:id="rId38"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -19838,7 +19838,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="数据透视表6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="B34:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -20031,7 +20031,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="数据透视表3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K4:L18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -20168,7 +20168,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="B59:C66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -20481,7 +20481,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="C5:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0"/>
@@ -20651,7 +20651,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="数据透视表4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="数据透视表4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="K28:O58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -23314,8 +23314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23539,7 +23539,7 @@
       <c r="N12" s="47"/>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:15" s="50" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <v>2</v>
       </c>
@@ -23578,7 +23578,7 @@
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
     </row>
-    <row r="14" spans="1:15" s="50" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <v>3</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C29" s="53" t="s">
         <v>33</v>

--- a/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
+++ b/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2138D942-B10A-473E-BC77-DCFA2FF6A0B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750679E3-885C-4277-A442-C681ACEDDF27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issue OverView" sheetId="5" state="hidden" r:id="rId1"/>
     <sheet name="问题图示" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="Issue List" sheetId="1" r:id="rId3"/>
     <sheet name="LOOKUP" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="地区定义页面报错" sheetId="8" r:id="rId5"/>
-    <sheet name="PDF预览错误" sheetId="10" r:id="rId6"/>
+    <sheet name="地区定义页面报错" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="PDF预览错误" sheetId="10" state="hidden" r:id="rId6"/>
     <sheet name="立项新增按钮颜色" sheetId="11" state="hidden" r:id="rId7"/>
-    <sheet name="立项报告等按钮无颜色" sheetId="12" r:id="rId8"/>
+    <sheet name="立项报告等按钮无颜色" sheetId="12" state="hidden" r:id="rId8"/>
     <sheet name="合同文本生成格式有问题" sheetId="13" r:id="rId9"/>
-    <sheet name="标题不显示" sheetId="14" r:id="rId10"/>
-    <sheet name="数字溢出" sheetId="15" r:id="rId11"/>
+    <sheet name="标题不显示" sheetId="14" state="hidden" r:id="rId10"/>
+    <sheet name="数字溢出" sheetId="15" state="hidden" r:id="rId11"/>
     <sheet name="收款新增保存卡住" sheetId="16" r:id="rId12"/>
     <sheet name="按钮不整齐" sheetId="9" r:id="rId13"/>
     <sheet name="文字与按钮重叠" sheetId="18" r:id="rId14"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="208">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1350,7 +1350,97 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7349,13 +7439,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>665124</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>369849</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>132669</xdr:rowOff>
     </xdr:to>
@@ -7380,7 +7470,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="390525" y="0"/>
           <a:ext cx="13009524" cy="5447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19901,7 +19991,7 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="12" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="36">
+    <format dxfId="48">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20129,29 +20219,29 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="43">
+    <format dxfId="55">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="54">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="53">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="52">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20420,7 +20510,7 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="6" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="44">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20569,16 +20659,16 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="48">
+    <format dxfId="60">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20882,19 +20972,19 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="9" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="54">
+    <format dxfId="66">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="64">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="27">
@@ -20929,7 +21019,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -21340,7 +21430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -21354,8 +21444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21370,8 +21460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23314,8 +23404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23325,7 +23415,7 @@
     <col min="3" max="3" width="13.25" style="44" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="44" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.25" style="44" customWidth="1"/>
+    <col min="6" max="6" width="48.875" style="44" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="44" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="44" customWidth="1"/>
     <col min="9" max="9" width="13.375" style="44" customWidth="1"/>
@@ -23539,7 +23629,7 @@
       <c r="N12" s="47"/>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:15" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" s="50" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <v>2</v>
       </c>
@@ -23578,7 +23668,7 @@
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
     </row>
-    <row r="14" spans="1:15" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" s="50" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <v>3</v>
       </c>
@@ -23651,9 +23741,6 @@
         <v>43418</v>
       </c>
       <c r="K15" s="49"/>
-      <c r="L15" s="47" t="s">
-        <v>204</v>
-      </c>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
       <c r="O15" s="47"/>
@@ -23690,7 +23777,9 @@
         <v>43418</v>
       </c>
       <c r="K16" s="49"/>
-      <c r="L16" s="47"/>
+      <c r="L16" s="47" t="s">
+        <v>204</v>
+      </c>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
       <c r="O16" s="47"/>
@@ -23700,7 +23789,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>33</v>
@@ -23727,7 +23816,9 @@
         <v>43418</v>
       </c>
       <c r="K17" s="49"/>
-      <c r="L17" s="47"/>
+      <c r="L17" s="47" t="s">
+        <v>202</v>
+      </c>
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
       <c r="O17" s="47"/>
@@ -23737,7 +23828,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>32</v>
@@ -23764,7 +23855,9 @@
         <v>43418</v>
       </c>
       <c r="K18" s="49"/>
-      <c r="L18" s="47"/>
+      <c r="L18" s="47" t="s">
+        <v>202</v>
+      </c>
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
       <c r="O18" s="47"/>
@@ -24188,7 +24281,7 @@
       <c r="N29" s="47"/>
       <c r="O29" s="47"/>
     </row>
-    <row r="30" spans="1:15" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" s="50" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="47">
         <v>19</v>
       </c>
@@ -25503,27 +25596,67 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A81:XFD1048576 A55:XFD78 G50:XFD54 A1:XFD12 A50:E54 A15:XFD18 O14:XFD14 A21:XFD21 A19:K20 M19:XFD20 A22:K22 M22:XFD22 A23:XFD49 A13:K14 M13:XFD13">
-    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
+  <conditionalFormatting sqref="A81:XFD1048576 A55:XFD78 G50:XFD54 A1:XFD12 A50:E54 O14:XFD14 A21:XFD21 A22:K22 M22:XFD22 A23:XFD49 M13:XFD13 A13:K15 M15:XFD15 A16:XFD16 A17:K20 M17:XFD20">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
       <formula>"待确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
       <formula>"取消"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="58" operator="equal">
       <formula>"正在解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="60" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="61" operator="equal">
       <formula>"未重现"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F53">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+      <formula>"待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+      <formula>"取消"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>"正在解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
+      <formula>"未重现"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:N14">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+      <formula>"待确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+      <formula>"取消"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>"正在解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
+      <formula>"未重现"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L20">
     <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"待确认"</formula>
     </cfRule>
@@ -25543,7 +25676,7 @@
       <formula>"未重现"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:N14">
+  <conditionalFormatting sqref="L22">
     <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"待确认"</formula>
     </cfRule>
@@ -25563,7 +25696,7 @@
       <formula>"未重现"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L20">
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"待确认"</formula>
     </cfRule>
@@ -25583,7 +25716,7 @@
       <formula>"未重现"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="L17">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"待确认"</formula>
     </cfRule>
@@ -25603,7 +25736,7 @@
       <formula>"未重现"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="L18">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"待确认"</formula>
     </cfRule>
@@ -25923,7 +26056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>

--- a/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
+++ b/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750679E3-885C-4277-A442-C681ACEDDF27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue OverView" sheetId="5" state="hidden" r:id="rId1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="212">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,11 +846,27 @@
     <t>陈强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>袁帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经确认，该问题已不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该问题已修复，经检查原方法被注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1348,7 +1363,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="67">
     <dxf>
@@ -1732,56 +1747,12 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <bottom style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
+        </right>
+        <top style="medium">
           <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -1872,12 +1843,56 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <bottom style="medium">
           <color indexed="64"/>
-        </right>
-        <top style="medium">
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
           <color indexed="64"/>
-        </top>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -7630,7 +7645,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="42509.964215856482" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="134" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42509.964215856482" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="134">
   <cacheSource type="worksheet">
     <worksheetSource ref="A7:O141" sheet="Issue List" r:id="rId2"/>
   </cacheSource>
@@ -7869,7 +7884,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="42510.008255671295" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="134" xr:uid="{00000000-000A-0000-FFFF-FFFF0B000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42510.008255671295" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="134">
   <cacheSource type="worksheet">
     <worksheetSource ref="A7:P141" sheet="Issue List" r:id="rId2"/>
   </cacheSource>
@@ -8101,7 +8116,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="42511.474423032407" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="136" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42511.474423032407" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
   <cacheSource type="worksheet">
     <worksheetSource ref="A11:P2000" sheet="Issue List" r:id="rId2"/>
   </cacheSource>
@@ -8194,7 +8209,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="42511.48710914352" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="136" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42511.48710914352" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
   <cacheSource type="worksheet">
     <worksheetSource ref="A11:O1000" sheet="Issue List" r:id="rId2"/>
   </cacheSource>
@@ -8262,7 +8277,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="42511.57258414352" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="136" xr:uid="{00000000-000A-0000-FFFF-FFFF0E000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42511.57258414352" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
   <cacheSource type="worksheet">
     <worksheetSource ref="A11:N880" sheet="Issue List" r:id="rId2"/>
   </cacheSource>
@@ -19928,7 +19943,358 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="K28:O58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="77">
+        <item x="46"/>
+        <item x="67"/>
+        <item x="69"/>
+        <item x="37"/>
+        <item x="19"/>
+        <item x="29"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="6"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="66"/>
+        <item x="43"/>
+        <item x="71"/>
+        <item x="63"/>
+        <item x="39"/>
+        <item x="49"/>
+        <item x="74"/>
+        <item x="61"/>
+        <item x="48"/>
+        <item x="70"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="22"/>
+        <item x="56"/>
+        <item x="16"/>
+        <item x="53"/>
+        <item x="60"/>
+        <item x="72"/>
+        <item x="64"/>
+        <item x="2"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="51"/>
+        <item x="34"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="55"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="40"/>
+        <item x="32"/>
+        <item x="54"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="38"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="52"/>
+        <item x="65"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="24"/>
+        <item x="68"/>
+        <item x="28"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="50"/>
+        <item x="47"/>
+        <item x="5"/>
+        <item x="62"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="75"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="29">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="9" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="53">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="27">
+            <x v="4"/>
+            <x v="7"/>
+            <x v="10"/>
+            <x v="14"/>
+            <x v="19"/>
+            <x v="22"/>
+            <x v="24"/>
+            <x v="25"/>
+            <x v="27"/>
+            <x v="29"/>
+            <x v="30"/>
+            <x v="31"/>
+            <x v="32"/>
+            <x v="33"/>
+            <x v="34"/>
+            <x v="37"/>
+            <x v="39"/>
+            <x v="42"/>
+            <x v="43"/>
+            <x v="45"/>
+            <x v="47"/>
+            <x v="52"/>
+            <x v="54"/>
+            <x v="56"/>
+            <x v="66"/>
+            <x v="67"/>
+            <x v="70"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="10" type="lastQuarter" evalOrder="-1" id="1">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <dynamicFilter type="lastQuarter" val="42370" maxVal="42461"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="B34:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -19991,7 +20357,7 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="12" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="48">
+    <format dxfId="54">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20120,8 +20486,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K4:L18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -20219,29 +20585,29 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="55">
+    <format dxfId="61">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="60">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="58">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20257,8 +20623,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="B59:C66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -20510,7 +20876,7 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="6" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="56">
+    <format dxfId="62">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20570,8 +20936,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="C5:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0"/>
@@ -20659,16 +21025,16 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="60">
+    <format dxfId="66">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20729,357 +21095,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="数据透视表4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="K28:O58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="77">
-        <item x="46"/>
-        <item x="67"/>
-        <item x="69"/>
-        <item x="37"/>
-        <item x="19"/>
-        <item x="29"/>
-        <item x="9"/>
-        <item x="25"/>
-        <item x="6"/>
-        <item x="31"/>
-        <item x="33"/>
-        <item x="66"/>
-        <item x="43"/>
-        <item x="71"/>
-        <item x="63"/>
-        <item x="39"/>
-        <item x="49"/>
-        <item x="74"/>
-        <item x="61"/>
-        <item x="48"/>
-        <item x="70"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="22"/>
-        <item x="56"/>
-        <item x="16"/>
-        <item x="53"/>
-        <item x="60"/>
-        <item x="72"/>
-        <item x="64"/>
-        <item x="2"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="51"/>
-        <item x="34"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="15"/>
-        <item x="55"/>
-        <item x="57"/>
-        <item x="26"/>
-        <item x="40"/>
-        <item x="32"/>
-        <item x="54"/>
-        <item x="0"/>
-        <item x="20"/>
-        <item x="38"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="23"/>
-        <item x="11"/>
-        <item x="52"/>
-        <item x="65"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="10"/>
-        <item x="30"/>
-        <item x="24"/>
-        <item x="68"/>
-        <item x="28"/>
-        <item x="1"/>
-        <item x="27"/>
-        <item x="50"/>
-        <item x="47"/>
-        <item x="5"/>
-        <item x="62"/>
-        <item x="8"/>
-        <item x="17"/>
-        <item x="73"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="75"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="29">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="9" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="66">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="10" count="27">
-            <x v="4"/>
-            <x v="7"/>
-            <x v="10"/>
-            <x v="14"/>
-            <x v="19"/>
-            <x v="22"/>
-            <x v="24"/>
-            <x v="25"/>
-            <x v="27"/>
-            <x v="29"/>
-            <x v="30"/>
-            <x v="31"/>
-            <x v="32"/>
-            <x v="33"/>
-            <x v="34"/>
-            <x v="37"/>
-            <x v="39"/>
-            <x v="42"/>
-            <x v="43"/>
-            <x v="45"/>
-            <x v="47"/>
-            <x v="52"/>
-            <x v="54"/>
-            <x v="56"/>
-            <x v="66"/>
-            <x v="67"/>
-            <x v="70"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="61">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="10" type="lastQuarter" evalOrder="-1" id="1">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <dynamicFilter type="lastQuarter" val="42370" maxVal="42461"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -21167,23 +21182,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -21219,23 +21217,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -21411,7 +21392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="F25" workbookViewId="0">
@@ -21427,7 +21408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21441,7 +21422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -21457,7 +21438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21473,7 +21454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21487,7 +21468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21501,7 +21482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21515,7 +21496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21529,7 +21510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -21545,7 +21526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
@@ -21559,7 +21540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21573,7 +21554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y95"/>
   <sheetViews>
     <sheetView topLeftCell="C22" workbookViewId="0">
@@ -23250,7 +23231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23265,7 +23246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23279,7 +23260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23294,7 +23275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23310,7 +23291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23325,7 +23306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23339,7 +23320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23353,7 +23334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23369,7 +23350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23385,7 +23366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23401,14 +23382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.25" style="44" customWidth="1"/>
     <col min="2" max="2" width="11" style="44" bestFit="1" customWidth="1"/>
@@ -23531,18 +23512,18 @@
       <c r="N6" s="42"/>
       <c r="O6" s="43"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C8" s="52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="52" t="s">
         <v>54</v>
       </c>
@@ -23594,7 +23575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="50" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
         <v>1</v>
       </c>
@@ -23629,7 +23610,7 @@
       <c r="N12" s="47"/>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:15" s="50" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <v>2</v>
       </c>
@@ -23668,7 +23649,7 @@
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
     </row>
-    <row r="14" spans="1:15" s="50" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <v>3</v>
       </c>
@@ -23945,7 +23926,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>34</v>
@@ -23972,9 +23953,13 @@
         <v>43418</v>
       </c>
       <c r="K21" s="49"/>
-      <c r="L21" s="47"/>
+      <c r="L21" s="47" t="s">
+        <v>208</v>
+      </c>
       <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
+      <c r="N21" s="47" t="s">
+        <v>209</v>
+      </c>
       <c r="O21" s="47"/>
     </row>
     <row r="22" spans="1:15" s="50" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24048,9 +24033,13 @@
         <v>43418</v>
       </c>
       <c r="K23" s="49"/>
-      <c r="L23" s="47"/>
+      <c r="L23" s="47" t="s">
+        <v>210</v>
+      </c>
       <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="N23" s="47" t="s">
+        <v>211</v>
+      </c>
       <c r="O23" s="47"/>
     </row>
     <row r="24" spans="1:15" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -25761,37 +25750,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'D:\work\汉得内部管理\项目管理\2016项目管理方法梳理\关键任务交付物\CPMO模板\04上线准备阶段\[CPMO模板_04上线阶段_上线准备阶段问题跟踪表.xlsx]LOOKUP'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>N3:N6 H3:I6 L3:L6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>'F:\项目文档\项目实施\L-罗普斯金\A.项目管理\[Issue List.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H12:H78</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>LOOKUP!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>C78:D78 C12:D53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>LOOKUP!$C$2:$C$12</xm:f>
           </x14:formula1>
           <xm:sqref>G78 G12:G74</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'D:\Users\guang\Desktop\客户测试\[中关村租赁核心业务系统框架升级项目_问题跟踪表_V1 _1112.xlsx]LOOKUP'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G75:G77 C54:D77</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>LOOKUP!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -25804,7 +25793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25903,7 +25892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25995,7 +25984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26009,7 +25998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -26025,7 +26014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26039,7 +26028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
@@ -26053,7 +26042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">

--- a/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
+++ b/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="2"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="214">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,6 +860,14 @@
   </si>
   <si>
     <t>该问题已修复，经检查原方法被注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已做调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,12 +1755,56 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <bottom style="medium">
           <color indexed="64"/>
-        </right>
-        <top style="medium">
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
           <color indexed="64"/>
-        </top>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -1843,56 +1895,12 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <bottom style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
+        </right>
+        <top style="medium">
           <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -19943,357 +19951,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="K28:O58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="77">
-        <item x="46"/>
-        <item x="67"/>
-        <item x="69"/>
-        <item x="37"/>
-        <item x="19"/>
-        <item x="29"/>
-        <item x="9"/>
-        <item x="25"/>
-        <item x="6"/>
-        <item x="31"/>
-        <item x="33"/>
-        <item x="66"/>
-        <item x="43"/>
-        <item x="71"/>
-        <item x="63"/>
-        <item x="39"/>
-        <item x="49"/>
-        <item x="74"/>
-        <item x="61"/>
-        <item x="48"/>
-        <item x="70"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="22"/>
-        <item x="56"/>
-        <item x="16"/>
-        <item x="53"/>
-        <item x="60"/>
-        <item x="72"/>
-        <item x="64"/>
-        <item x="2"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="51"/>
-        <item x="34"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="15"/>
-        <item x="55"/>
-        <item x="57"/>
-        <item x="26"/>
-        <item x="40"/>
-        <item x="32"/>
-        <item x="54"/>
-        <item x="0"/>
-        <item x="20"/>
-        <item x="38"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="23"/>
-        <item x="11"/>
-        <item x="52"/>
-        <item x="65"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="10"/>
-        <item x="30"/>
-        <item x="24"/>
-        <item x="68"/>
-        <item x="28"/>
-        <item x="1"/>
-        <item x="27"/>
-        <item x="50"/>
-        <item x="47"/>
-        <item x="5"/>
-        <item x="62"/>
-        <item x="8"/>
-        <item x="17"/>
-        <item x="73"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="75"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="29">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="9" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="53">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="10" count="27">
-            <x v="4"/>
-            <x v="7"/>
-            <x v="10"/>
-            <x v="14"/>
-            <x v="19"/>
-            <x v="22"/>
-            <x v="24"/>
-            <x v="25"/>
-            <x v="27"/>
-            <x v="29"/>
-            <x v="30"/>
-            <x v="31"/>
-            <x v="32"/>
-            <x v="33"/>
-            <x v="34"/>
-            <x v="37"/>
-            <x v="39"/>
-            <x v="42"/>
-            <x v="43"/>
-            <x v="45"/>
-            <x v="47"/>
-            <x v="52"/>
-            <x v="54"/>
-            <x v="56"/>
-            <x v="66"/>
-            <x v="67"/>
-            <x v="70"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="10" type="lastQuarter" evalOrder="-1" id="1">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <dynamicFilter type="lastQuarter" val="42370" maxVal="42461"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="B34:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
@@ -20357,7 +20014,7 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="12" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="54">
+    <format dxfId="48">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20486,7 +20143,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K4:L18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -20585,29 +20242,29 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="61">
+    <format dxfId="55">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="54">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="53">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="52">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20623,7 +20280,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="B59:C66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
@@ -20876,7 +20533,7 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="6" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="62">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20936,7 +20593,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="C5:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
@@ -21025,16 +20682,16 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="66">
+    <format dxfId="60">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -21095,6 +20752,357 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="K28:O58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="77">
+        <item x="46"/>
+        <item x="67"/>
+        <item x="69"/>
+        <item x="37"/>
+        <item x="19"/>
+        <item x="29"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="6"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="66"/>
+        <item x="43"/>
+        <item x="71"/>
+        <item x="63"/>
+        <item x="39"/>
+        <item x="49"/>
+        <item x="74"/>
+        <item x="61"/>
+        <item x="48"/>
+        <item x="70"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="22"/>
+        <item x="56"/>
+        <item x="16"/>
+        <item x="53"/>
+        <item x="60"/>
+        <item x="72"/>
+        <item x="64"/>
+        <item x="2"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="51"/>
+        <item x="34"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="55"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="40"/>
+        <item x="32"/>
+        <item x="54"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="38"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="52"/>
+        <item x="65"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="24"/>
+        <item x="68"/>
+        <item x="28"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="50"/>
+        <item x="47"/>
+        <item x="5"/>
+        <item x="62"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="75"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="29">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="9" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="66">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="27">
+            <x v="4"/>
+            <x v="7"/>
+            <x v="10"/>
+            <x v="14"/>
+            <x v="19"/>
+            <x v="22"/>
+            <x v="24"/>
+            <x v="25"/>
+            <x v="27"/>
+            <x v="29"/>
+            <x v="30"/>
+            <x v="31"/>
+            <x v="32"/>
+            <x v="33"/>
+            <x v="34"/>
+            <x v="37"/>
+            <x v="39"/>
+            <x v="42"/>
+            <x v="43"/>
+            <x v="45"/>
+            <x v="47"/>
+            <x v="52"/>
+            <x v="54"/>
+            <x v="56"/>
+            <x v="66"/>
+            <x v="67"/>
+            <x v="70"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="10" type="lastQuarter" evalOrder="-1" id="1">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <dynamicFilter type="lastQuarter" val="42370" maxVal="42461"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -23385,8 +23393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23396,7 +23404,7 @@
     <col min="3" max="3" width="13.25" style="44" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="44" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.875" style="44" customWidth="1"/>
+    <col min="6" max="6" width="60.75" style="44" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="44" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="44" customWidth="1"/>
     <col min="9" max="9" width="13.375" style="44" customWidth="1"/>
@@ -24006,7 +24014,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>34</v>
@@ -24312,7 +24320,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>32</v>
@@ -24339,9 +24347,13 @@
         <v>43418</v>
       </c>
       <c r="K31" s="49"/>
-      <c r="L31" s="47"/>
+      <c r="L31" s="47" t="s">
+        <v>212</v>
+      </c>
       <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
+      <c r="N31" s="47" t="s">
+        <v>213</v>
+      </c>
       <c r="O31" s="47"/>
     </row>
     <row r="32" spans="1:15" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">

--- a/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
+++ b/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
@@ -851,10 +851,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经确认，该问题已不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>袁帅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -868,6 +864,10 @@
   </si>
   <si>
     <t>已做调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置已做调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1755,56 +1755,12 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <bottom style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
+        </right>
+        <top style="medium">
           <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -1975,12 +1931,56 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <bottom style="medium">
           <color indexed="64"/>
-        </right>
-        <top style="medium">
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
           <color indexed="64"/>
-        </top>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -19951,336 +19951,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="B34:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="12" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="48">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="K4:L18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="14">
-        <item x="4"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="7" baseItem="0"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="55">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="B59:C66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
@@ -20533,7 +20203,7 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="6" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="56">
+    <format dxfId="48">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20593,7 +20263,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="C5:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
@@ -20682,16 +20352,16 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="60">
+    <format dxfId="52">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20763,7 +20433,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="K28:O58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
@@ -20995,19 +20665,19 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="9" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="66">
+    <format dxfId="58">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="57">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="56">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="27">
@@ -21042,7 +20712,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -21103,6 +20773,336 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="B34:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="12" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="59">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="K4:L18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="14">
+        <item x="4"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="7" baseItem="0"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="66">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -23393,8 +23393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23966,7 +23966,7 @@
       </c>
       <c r="M21" s="47"/>
       <c r="N21" s="47" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O21" s="47"/>
     </row>
@@ -24042,11 +24042,11 @@
       </c>
       <c r="K23" s="49"/>
       <c r="L23" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M23" s="47"/>
       <c r="N23" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" s="47"/>
     </row>
@@ -24348,11 +24348,11 @@
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M31" s="47"/>
       <c r="N31" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O31" s="47"/>
     </row>

--- a/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
+++ b/core-db/src/main/java/com/hand/hls/中关村租赁核心业务系统框架升级项目_问题跟踪表_V2_20181113.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="216">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -868,6 +868,14 @@
   </si>
   <si>
     <t>位置已做调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1851,12 +1859,56 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <bottom style="medium">
           <color indexed="64"/>
-        </right>
-        <top style="medium">
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
           <color indexed="64"/>
-        </top>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -1931,56 +1983,12 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <bottom style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
+        </right>
+        <top style="medium">
           <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -19951,6 +19959,687 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="K28:O58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="77">
+        <item x="46"/>
+        <item x="67"/>
+        <item x="69"/>
+        <item x="37"/>
+        <item x="19"/>
+        <item x="29"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="6"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="66"/>
+        <item x="43"/>
+        <item x="71"/>
+        <item x="63"/>
+        <item x="39"/>
+        <item x="49"/>
+        <item x="74"/>
+        <item x="61"/>
+        <item x="48"/>
+        <item x="70"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="22"/>
+        <item x="56"/>
+        <item x="16"/>
+        <item x="53"/>
+        <item x="60"/>
+        <item x="72"/>
+        <item x="64"/>
+        <item x="2"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="51"/>
+        <item x="34"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="55"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="40"/>
+        <item x="32"/>
+        <item x="54"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="38"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="52"/>
+        <item x="65"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="24"/>
+        <item x="68"/>
+        <item x="28"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="50"/>
+        <item x="47"/>
+        <item x="5"/>
+        <item x="62"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="75"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="29">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="9" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="53">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="27">
+            <x v="4"/>
+            <x v="7"/>
+            <x v="10"/>
+            <x v="14"/>
+            <x v="19"/>
+            <x v="22"/>
+            <x v="24"/>
+            <x v="25"/>
+            <x v="27"/>
+            <x v="29"/>
+            <x v="30"/>
+            <x v="31"/>
+            <x v="32"/>
+            <x v="33"/>
+            <x v="34"/>
+            <x v="37"/>
+            <x v="39"/>
+            <x v="42"/>
+            <x v="43"/>
+            <x v="45"/>
+            <x v="47"/>
+            <x v="52"/>
+            <x v="54"/>
+            <x v="56"/>
+            <x v="66"/>
+            <x v="67"/>
+            <x v="70"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="10" type="lastQuarter" evalOrder="-1" id="1">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <dynamicFilter type="lastQuarter" val="42370" maxVal="42461"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="B34:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="12" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="54">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="K4:L18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="14">
+        <item x="4"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="7" baseItem="0"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="61">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="B59:C66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
@@ -20203,7 +20892,7 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="6" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="48">
+    <format dxfId="62">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20263,7 +20952,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="C5:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
@@ -20352,16 +21041,16 @@
     <dataField name="计数项:序号" fld="0" subtotal="count" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="52">
+    <format dxfId="66">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20421,687 +21110,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="K28:O58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="77">
-        <item x="46"/>
-        <item x="67"/>
-        <item x="69"/>
-        <item x="37"/>
-        <item x="19"/>
-        <item x="29"/>
-        <item x="9"/>
-        <item x="25"/>
-        <item x="6"/>
-        <item x="31"/>
-        <item x="33"/>
-        <item x="66"/>
-        <item x="43"/>
-        <item x="71"/>
-        <item x="63"/>
-        <item x="39"/>
-        <item x="49"/>
-        <item x="74"/>
-        <item x="61"/>
-        <item x="48"/>
-        <item x="70"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="22"/>
-        <item x="56"/>
-        <item x="16"/>
-        <item x="53"/>
-        <item x="60"/>
-        <item x="72"/>
-        <item x="64"/>
-        <item x="2"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="51"/>
-        <item x="34"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="15"/>
-        <item x="55"/>
-        <item x="57"/>
-        <item x="26"/>
-        <item x="40"/>
-        <item x="32"/>
-        <item x="54"/>
-        <item x="0"/>
-        <item x="20"/>
-        <item x="38"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="23"/>
-        <item x="11"/>
-        <item x="52"/>
-        <item x="65"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="10"/>
-        <item x="30"/>
-        <item x="24"/>
-        <item x="68"/>
-        <item x="28"/>
-        <item x="1"/>
-        <item x="27"/>
-        <item x="50"/>
-        <item x="47"/>
-        <item x="5"/>
-        <item x="62"/>
-        <item x="8"/>
-        <item x="17"/>
-        <item x="73"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="75"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="29">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="9" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="58">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="10" count="27">
-            <x v="4"/>
-            <x v="7"/>
-            <x v="10"/>
-            <x v="14"/>
-            <x v="19"/>
-            <x v="22"/>
-            <x v="24"/>
-            <x v="25"/>
-            <x v="27"/>
-            <x v="29"/>
-            <x v="30"/>
-            <x v="31"/>
-            <x v="32"/>
-            <x v="33"/>
-            <x v="34"/>
-            <x v="37"/>
-            <x v="39"/>
-            <x v="42"/>
-            <x v="43"/>
-            <x v="45"/>
-            <x v="47"/>
-            <x v="52"/>
-            <x v="54"/>
-            <x v="56"/>
-            <x v="66"/>
-            <x v="67"/>
-            <x v="70"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="53">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="10" type="lastQuarter" evalOrder="-1" id="1">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <dynamicFilter type="lastQuarter" val="42370" maxVal="42461"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="B34:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="12" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="59">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="K4:L18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="14">
-        <item x="4"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:序号" fld="0" subtotal="count" baseField="7" baseItem="0"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="66">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="61">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="60">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -23345,7 +23353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -23393,8 +23401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="G46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24398,7 +24406,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>32</v>
@@ -24425,7 +24433,9 @@
         <v>43418</v>
       </c>
       <c r="K33" s="49"/>
-      <c r="L33" s="47"/>
+      <c r="L33" s="47" t="s">
+        <v>214</v>
+      </c>
       <c r="M33" s="47"/>
       <c r="N33" s="47"/>
       <c r="O33" s="47"/>
@@ -25064,7 +25074,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C51" s="53" t="s">
         <v>32</v>
@@ -25093,7 +25103,9 @@
       <c r="K51" s="49"/>
       <c r="L51" s="47"/>
       <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
+      <c r="N51" s="47" t="s">
+        <v>215</v>
+      </c>
       <c r="O51" s="47"/>
     </row>
     <row r="52" spans="1:15" s="50" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
